--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/admit.menu.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/admit.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6B42B-5F9B-7042-BFD4-DD2EA38DA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C385A279-417B-2347-9238-88C27C58581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="19520" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -332,39 +332,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>rule.menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>io.vertx.tp.rbac.ruler.HSUiNorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>io.vertx.tp.rbac.ruler.HSDimNorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule.menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,7 +370,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +378,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -388,7 +386,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -632,7 +630,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -979,11 +977,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:P6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -1005,7 +1003,7 @@
     <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1027,7 @@
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>47</v>
@@ -1155,7 +1153,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>50</v>
@@ -1171,7 +1169,7 @@
         <v>38</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="9"/>
     </row>
@@ -1189,11 +1187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
   <dimension ref="A3:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -1213,7 +1211,7 @@
     <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1231,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1352,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
